--- a/public/templates/category_template.xlsx
+++ b/public/templates/category_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andru\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ecommerce\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C45E86A-B625-497F-AB60-96D5FE13A0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A816582B-BBBA-4A7B-B39A-EFA6463C6A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -24,16 +24,17 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -41,21 +42,36 @@
     <t>description</t>
   </si>
   <si>
-    <t>category name</t>
-  </si>
-  <si>
-    <t>category description</t>
+    <t>code</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>CAT-005</t>
+  </si>
+  <si>
+    <t>Kaos</t>
+  </si>
+  <si>
+    <t>Kaos Putih</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -99,9 +115,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,35 +423,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
